--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Proyecto de ingenieria de software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9E6223-7EE0-4DE1-AED8-4EDE5E41BDF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B7FA02-7680-4C66-9942-6FF0ABA4C1BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C448A00F-BCE4-46BD-AEDA-2101D55CEF72}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t xml:space="preserve">FECHA </t>
   </si>
@@ -45,19 +45,19 @@
     <t xml:space="preserve">realización de segunda reunión para planeación de temas para la reunión con docente </t>
   </si>
   <si>
-    <t xml:space="preserve">Realización de reunión con la docente </t>
-  </si>
-  <si>
     <t xml:space="preserve">Realización de diagrama de casos de uso </t>
   </si>
   <si>
-    <t xml:space="preserve">BOTÁCORA  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realización de requerimientos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizacion de Mock ups </t>
+    <t xml:space="preserve">BITÁCORA  </t>
+  </si>
+  <si>
+    <t>Realización de reunión con la docente para recolección de datos del semillero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realización de requerimientos del sitio web del semillero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizacion de Mock ups  del sitio web del semillero </t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -162,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -481,9 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57973C5C-B84F-4996-B2CF-7A7F75FD2B05}">
   <dimension ref="D1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -496,7 +494,7 @@
     <row r="1" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -534,7 +532,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="4"/>
@@ -547,25 +545,25 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>43729</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>43730</v>
       </c>
       <c r="E8" s="4"/>
@@ -577,7 +575,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>43730</v>
       </c>
       <c r="E9" s="4"/>
@@ -589,7 +587,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>43731</v>
       </c>
       <c r="E10" s="4"/>
@@ -601,47 +599,67 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>43745</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>43745</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>43753</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>43754</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>43759</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="3"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="2"/>
@@ -649,7 +667,7 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="3"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="2"/>
